--- a/biology/Zoologie/Alucite_des_céréales/Alucite_des_céréales.xlsx
+++ b/biology/Zoologie/Alucite_des_céréales/Alucite_des_céréales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alucite_des_c%C3%A9r%C3%A9ales</t>
+          <t>Alucite_des_céréales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sitotroga cerealella
 Sitotroga cerealella (alucite des céréales ou teigne des céréales, mite angoumoise du grain, papillon de l'Angoumois) est une espèce de lépidoptères de la famille des Gelechiidae, à répartition cosmopolite.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alucite_des_c%C3%A9r%C3%A9ales</t>
+          <t>Alucite_des_céréales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Australian Biological Resources Study (ABRS)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Australian Biological Resources Study (ABRS) :
 Alucita cerealella Olivier, 1789
 Aristotelia ochrescens Meyrick in Caradja &amp; Meyrick, 1938
 Epithectis palearis Meyrick, 1913
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alucite_des_c%C3%A9r%C3%A9ales</t>
+          <t>Alucite_des_céréales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'insecte adulte gris brunâtre est un papillon de 15 mm d'envergure environ. Les papillons adultes ne se nourrissent pas, ils pondent leurs œufs sur les grains non infestés et meurent rapidement.
 Ses ailes postérieures qui se rétrécissent brusquement à un certain point sont frangées de longs poils et forment un « V » distinctif en forme de marquage.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alucite_des_c%C3%A9r%C3%A9ales</t>
+          <t>Alucite_des_céréales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les papillons pondent leurs œufs sur les épis de blé ou de maïs en culture ou sur les grains entreposés.
 Les larves se nourrissent et se développent entièrement à l'intérieur des grains. Avant la nymphose, elles percent un trou de sortie circulaire caractéristique dans le tégument.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alucite_des_c%C3%A9r%C3%A9ales</t>
+          <t>Alucite_des_céréales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,11 +637,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Sitotroga cerealella est quasi-cosmopolite aujourd'hui, et comprend la presque totalité de l'Europe[2], ainsi que des zones  aussi éloignées que l'Australie, le  Bénin, le Brésil, la Chine, l'Indonésie, le Japon, les îles Samoa et les États-Unis[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Sitotroga cerealella est quasi-cosmopolite aujourd'hui, et comprend la presque totalité de l'Europe, ainsi que des zones  aussi éloignées que l'Australie, le  Bénin, le Brésil, la Chine, l'Indonésie, le Japon, les îles Samoa et les États-Unis.
 Cela s'explique par un comportement synanthropique, qui lui permet d'être facilement transporté grâce aux échanges internationaux de céréales
-Son nom vernaculaire en anglais,  Angoumois Grain Moth, fait référence à l'Angoumois, province de France pré-révolutionnaire, où cet insecte fut décrit scientifiquement  par Guillaume-Antoine Olivier en 1789. La province est devenue l'année suivante l'actuel département de la Charente, et comme cela a été montré depuis[1] l'origine de l'espèce ne se situe pas dans l'Ouest de la France.
+Son nom vernaculaire en anglais,  Angoumois Grain Moth, fait référence à l'Angoumois, province de France pré-révolutionnaire, où cet insecte fut décrit scientifiquement  par Guillaume-Antoine Olivier en 1789. La province est devenue l'année suivante l'actuel département de la Charente, et comme cela a été montré depuis l'origine de l'espèce ne se situe pas dans l'Ouest de la France.
 </t>
         </is>
       </c>
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alucite_des_c%C3%A9r%C3%A9ales</t>
+          <t>Alucite_des_céréales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,7 +672,9 @@
           <t>Contrôle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les procédures de stockage modernes ont réduit les problèmes avec cet insecte. Le papillon est sensible aux températures basses et hautes (+40 °C). Ces insectes ravageurs sont incapables de se nourrir ou de se reproduire à des températures inférieures à +17 °C. Des températures encore plus basses peuvent servir à éliminer les insectes. Par exemple, le développement des insectes nuisibles (de tout stade) du grain entreposé s'arrêtera s'ils sont exposés à une température de −5 °C pendant 12 semaines ou 1 semaine à −20 °C.
 </t>
